--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H2">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I2">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J2">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.0887068439149</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N2">
-        <v>24.0887068439149</v>
+        <v>72.45452</v>
       </c>
       <c r="O2">
-        <v>0.05792932504214226</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P2">
-        <v>0.05792932504214226</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q2">
-        <v>458.9028355130382</v>
+        <v>514.3694262525822</v>
       </c>
       <c r="R2">
-        <v>458.9028355130382</v>
+        <v>4629.32483627324</v>
       </c>
       <c r="S2">
-        <v>0.004349813235865733</v>
+        <v>0.004580558119725569</v>
       </c>
       <c r="T2">
-        <v>0.004349813235865733</v>
+        <v>0.004580558119725571</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H3">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I3">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J3">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>159.175599089258</v>
+        <v>0.097204</v>
       </c>
       <c r="N3">
-        <v>159.175599089258</v>
+        <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.3827907856643069</v>
+        <v>0.0002320268364499376</v>
       </c>
       <c r="P3">
-        <v>0.3827907856643069</v>
+        <v>0.0002320268364499377</v>
       </c>
       <c r="Q3">
-        <v>3032.380867925229</v>
+        <v>2.070213109249333</v>
       </c>
       <c r="R3">
-        <v>3032.380867925229</v>
+        <v>18.631917983244</v>
       </c>
       <c r="S3">
-        <v>0.02874310074972815</v>
+        <v>1.843564368944012E-05</v>
       </c>
       <c r="T3">
-        <v>0.02874310074972815</v>
+        <v>1.843564368944012E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H4">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I4">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J4">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>223.464444502756</v>
+        <v>159.5522103333333</v>
       </c>
       <c r="N4">
-        <v>223.464444502756</v>
+        <v>478.656631</v>
       </c>
       <c r="O4">
-        <v>0.5373947437212477</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="P4">
-        <v>0.5373947437212477</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="Q4">
-        <v>4257.117988239609</v>
+        <v>3398.081122605794</v>
       </c>
       <c r="R4">
-        <v>4257.117988239609</v>
+        <v>30582.73010345215</v>
       </c>
       <c r="S4">
-        <v>0.04035204565947956</v>
+        <v>0.03026056231809328</v>
       </c>
       <c r="T4">
-        <v>0.04035204565947956</v>
+        <v>0.03026056231809329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.0505384322431</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H5">
-        <v>19.0505384322431</v>
+        <v>63.892837</v>
       </c>
       <c r="I5">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J5">
-        <v>0.07508827752958185</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.10048331383285</v>
+        <v>225.4475503333333</v>
       </c>
       <c r="N5">
-        <v>9.10048331383285</v>
+        <v>676.342651</v>
       </c>
       <c r="O5">
-        <v>0.02188514557230325</v>
+        <v>0.5381453632487492</v>
       </c>
       <c r="P5">
-        <v>0.02188514557230325</v>
+        <v>0.5381453632487493</v>
       </c>
       <c r="Q5">
-        <v>173.3691071221598</v>
+        <v>4801.494528498987</v>
       </c>
       <c r="R5">
-        <v>173.3691071221598</v>
+        <v>43213.45075649089</v>
       </c>
       <c r="S5">
-        <v>0.001643317884508406</v>
+        <v>0.04275822711619326</v>
       </c>
       <c r="T5">
-        <v>0.001643317884508406</v>
+        <v>0.04275822711619327</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>71.56419225180809</v>
+        <v>21.29761233333333</v>
       </c>
       <c r="H6">
-        <v>71.56419225180809</v>
+        <v>63.892837</v>
       </c>
       <c r="I6">
-        <v>0.2820724436790314</v>
+        <v>0.07945479053849795</v>
       </c>
       <c r="J6">
-        <v>0.2820724436790314</v>
+        <v>0.07945479053849797</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.0887068439149</v>
+        <v>9.685827333333334</v>
       </c>
       <c r="N6">
-        <v>24.0887068439149</v>
+        <v>29.057482</v>
       </c>
       <c r="O6">
-        <v>0.05792932504214226</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="P6">
-        <v>0.05792932504214226</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="Q6">
-        <v>1723.888847675371</v>
+        <v>206.2849956729371</v>
       </c>
       <c r="R6">
-        <v>1723.888847675371</v>
+        <v>1856.564961056434</v>
       </c>
       <c r="S6">
-        <v>0.01634026627531398</v>
+        <v>0.0018370073407964</v>
       </c>
       <c r="T6">
-        <v>0.01634026627531398</v>
+        <v>0.001837007340796401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>71.56419225180809</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H7">
-        <v>71.56419225180809</v>
+        <v>217.624695</v>
       </c>
       <c r="I7">
-        <v>0.2820724436790314</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J7">
-        <v>0.2820724436790314</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>159.175599089258</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N7">
-        <v>159.175599089258</v>
+        <v>72.45452</v>
       </c>
       <c r="O7">
-        <v>0.3827907856643069</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P7">
-        <v>0.3827907856643069</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q7">
-        <v>11391.27317502039</v>
+        <v>1751.988090707933</v>
       </c>
       <c r="R7">
-        <v>11391.27317502039</v>
+        <v>15767.8928163714</v>
       </c>
       <c r="S7">
-        <v>0.1079747323301474</v>
+        <v>0.01560178903520986</v>
       </c>
       <c r="T7">
-        <v>0.1079747323301474</v>
+        <v>0.01560178903520986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.56419225180809</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H8">
-        <v>71.56419225180809</v>
+        <v>217.624695</v>
       </c>
       <c r="I8">
-        <v>0.2820724436790314</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J8">
-        <v>0.2820724436790314</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>223.464444502756</v>
+        <v>0.097204</v>
       </c>
       <c r="N8">
-        <v>223.464444502756</v>
+        <v>0.291612</v>
       </c>
       <c r="O8">
-        <v>0.5373947437212477</v>
+        <v>0.0002320268364499376</v>
       </c>
       <c r="P8">
-        <v>0.5373947437212477</v>
+        <v>0.0002320268364499377</v>
       </c>
       <c r="Q8">
-        <v>15992.05246783873</v>
+        <v>7.051330284260001</v>
       </c>
       <c r="R8">
-        <v>15992.05246783873</v>
+        <v>63.46197255834001</v>
       </c>
       <c r="S8">
-        <v>0.1515842485817192</v>
+        <v>6.27934448276742E-05</v>
       </c>
       <c r="T8">
-        <v>0.1515842485817192</v>
+        <v>6.279344482767421E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.56419225180809</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H9">
-        <v>71.56419225180809</v>
+        <v>217.624695</v>
       </c>
       <c r="I9">
-        <v>0.2820724436790314</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J9">
-        <v>0.2820724436790314</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.10048331383285</v>
+        <v>159.5522103333333</v>
       </c>
       <c r="N9">
-        <v>9.10048331383285</v>
+        <v>478.656631</v>
       </c>
       <c r="O9">
-        <v>0.02188514557230325</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="P9">
-        <v>0.02188514557230325</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="Q9">
-        <v>651.2687374555057</v>
+        <v>11574.16703678917</v>
       </c>
       <c r="R9">
-        <v>651.2687374555057</v>
+        <v>104167.5033311026</v>
       </c>
       <c r="S9">
-        <v>0.006173196491850912</v>
+        <v>0.103070171152418</v>
       </c>
       <c r="T9">
-        <v>0.006173196491850912</v>
+        <v>0.103070171152418</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>70.8952846780667</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H10">
-        <v>70.8952846780667</v>
+        <v>217.624695</v>
       </c>
       <c r="I10">
-        <v>0.2794359241015206</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J10">
-        <v>0.2794359241015206</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.0887068439149</v>
+        <v>225.4475503333333</v>
       </c>
       <c r="N10">
-        <v>24.0887068439149</v>
+        <v>676.342651</v>
       </c>
       <c r="O10">
-        <v>0.05792932504214226</v>
+        <v>0.5381453632487492</v>
       </c>
       <c r="P10">
-        <v>0.05792932504214226</v>
+        <v>0.5381453632487493</v>
       </c>
       <c r="Q10">
-        <v>1707.77572922584</v>
+        <v>16354.31812659627</v>
       </c>
       <c r="R10">
-        <v>1707.77572922584</v>
+        <v>147188.8631393665</v>
       </c>
       <c r="S10">
-        <v>0.01618753447572838</v>
+        <v>0.1456383308648869</v>
       </c>
       <c r="T10">
-        <v>0.01618753447572838</v>
+        <v>0.145638330864887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>70.8952846780667</v>
+        <v>72.54156500000001</v>
       </c>
       <c r="H11">
-        <v>70.8952846780667</v>
+        <v>217.624695</v>
       </c>
       <c r="I11">
-        <v>0.2794359241015206</v>
+        <v>0.270630095158077</v>
       </c>
       <c r="J11">
-        <v>0.2794359241015206</v>
+        <v>0.2706300951580771</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>159.175599089258</v>
+        <v>9.685827333333334</v>
       </c>
       <c r="N11">
-        <v>159.175599089258</v>
+        <v>29.057482</v>
       </c>
       <c r="O11">
-        <v>0.3827907856643069</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="P11">
-        <v>0.3827907856643069</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="Q11">
-        <v>11284.79941123476</v>
+        <v>702.6250730797768</v>
       </c>
       <c r="R11">
-        <v>11284.79941123476</v>
+        <v>6323.625657717991</v>
       </c>
       <c r="S11">
-        <v>0.1069654969296527</v>
+        <v>0.006257010660734593</v>
       </c>
       <c r="T11">
-        <v>0.1069654969296527</v>
+        <v>0.006257010660734595</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>70.8952846780667</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H12">
-        <v>70.8952846780667</v>
+        <v>213.348839</v>
       </c>
       <c r="I12">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J12">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>223.464444502756</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N12">
-        <v>223.464444502756</v>
+        <v>72.45452</v>
       </c>
       <c r="O12">
-        <v>0.5373947437212477</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P12">
-        <v>0.5373947437212477</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q12">
-        <v>15842.57540844893</v>
+        <v>1717.565302478031</v>
       </c>
       <c r="R12">
-        <v>15842.57540844893</v>
+        <v>15458.08772230228</v>
       </c>
       <c r="S12">
-        <v>0.1501673968190467</v>
+        <v>0.01529524752227661</v>
       </c>
       <c r="T12">
-        <v>0.1501673968190467</v>
+        <v>0.01529524752227661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>70.8952846780667</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H13">
-        <v>70.8952846780667</v>
+        <v>213.348839</v>
       </c>
       <c r="I13">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J13">
-        <v>0.2794359241015206</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>9.10048331383285</v>
+        <v>0.097204</v>
       </c>
       <c r="N13">
-        <v>9.10048331383285</v>
+        <v>0.291612</v>
       </c>
       <c r="O13">
-        <v>0.02188514557230325</v>
+        <v>0.0002320268364499376</v>
       </c>
       <c r="P13">
-        <v>0.02188514557230325</v>
+        <v>0.0002320268364499377</v>
       </c>
       <c r="Q13">
-        <v>645.1813552421758</v>
+        <v>6.912786848718667</v>
       </c>
       <c r="R13">
-        <v>645.1813552421758</v>
+        <v>62.21508163846799</v>
       </c>
       <c r="S13">
-        <v>0.00611549587709286</v>
+        <v>6.15596890361861E-05</v>
       </c>
       <c r="T13">
-        <v>0.00611549587709286</v>
+        <v>6.155968903618611E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.2020737078026</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H14">
-        <v>45.2020737078026</v>
+        <v>213.348839</v>
       </c>
       <c r="I14">
-        <v>0.1781653504207258</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J14">
-        <v>0.1781653504207258</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.0887068439149</v>
+        <v>159.5522103333333</v>
       </c>
       <c r="N14">
-        <v>24.0887068439149</v>
+        <v>478.656631</v>
       </c>
       <c r="O14">
-        <v>0.05792932504214226</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="P14">
-        <v>0.05792932504214226</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="Q14">
-        <v>1088.85950228429</v>
+        <v>11346.75961150016</v>
       </c>
       <c r="R14">
-        <v>1088.85950228429</v>
+        <v>102120.8365035014</v>
       </c>
       <c r="S14">
-        <v>0.0103209984957694</v>
+        <v>0.1010450645359878</v>
       </c>
       <c r="T14">
-        <v>0.0103209984957694</v>
+        <v>0.1010450645359878</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.2020737078026</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H15">
-        <v>45.2020737078026</v>
+        <v>213.348839</v>
       </c>
       <c r="I15">
-        <v>0.1781653504207258</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J15">
-        <v>0.1781653504207258</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>159.175599089258</v>
+        <v>225.4475503333333</v>
       </c>
       <c r="N15">
-        <v>159.175599089258</v>
+        <v>676.342651</v>
       </c>
       <c r="O15">
-        <v>0.3827907856643069</v>
+        <v>0.5381453632487492</v>
       </c>
       <c r="P15">
-        <v>0.3827907856643069</v>
+        <v>0.5381453632487493</v>
       </c>
       <c r="Q15">
-        <v>7195.067162516276</v>
+        <v>16032.99103967025</v>
       </c>
       <c r="R15">
-        <v>7195.067162516276</v>
+        <v>144296.9193570322</v>
       </c>
       <c r="S15">
-        <v>0.06820005446570616</v>
+        <v>0.142776851698386</v>
       </c>
       <c r="T15">
-        <v>0.06820005446570616</v>
+        <v>0.1427768516983861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.2020737078026</v>
+        <v>71.11627966666667</v>
       </c>
       <c r="H16">
-        <v>45.2020737078026</v>
+        <v>213.348839</v>
       </c>
       <c r="I16">
-        <v>0.1781653504207258</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="J16">
-        <v>0.1781653504207258</v>
+        <v>0.2653127973387177</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>223.464444502756</v>
+        <v>9.685827333333334</v>
       </c>
       <c r="N16">
-        <v>223.464444502756</v>
+        <v>29.057482</v>
       </c>
       <c r="O16">
-        <v>0.5373947437212477</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="P16">
-        <v>0.5373947437212477</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="Q16">
-        <v>10101.05629148674</v>
+        <v>688.8200054403776</v>
       </c>
       <c r="R16">
-        <v>10101.05629148674</v>
+        <v>6199.380048963398</v>
       </c>
       <c r="S16">
-        <v>0.09574512282935223</v>
+        <v>0.006134073893031066</v>
       </c>
       <c r="T16">
-        <v>0.09574512282935223</v>
+        <v>0.006134073893031066</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.2020737078026</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H17">
-        <v>45.2020737078026</v>
+        <v>140.554172</v>
       </c>
       <c r="I17">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J17">
-        <v>0.1781653504207258</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.10048331383285</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N17">
-        <v>9.10048331383285</v>
+        <v>72.45452</v>
       </c>
       <c r="O17">
-        <v>0.02188514557230325</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P17">
-        <v>0.02188514557230325</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q17">
-        <v>411.3607175285001</v>
+        <v>1131.531674028604</v>
       </c>
       <c r="R17">
-        <v>411.3607175285001</v>
+        <v>10183.78506625744</v>
       </c>
       <c r="S17">
-        <v>0.003899174629898004</v>
+        <v>0.01007650597540228</v>
       </c>
       <c r="T17">
-        <v>0.003899174629898004</v>
+        <v>0.01007650597540229</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.996466499728</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H18">
-        <v>46.996466499728</v>
+        <v>140.554172</v>
       </c>
       <c r="I18">
-        <v>0.1852380042691404</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J18">
-        <v>0.1852380042691404</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>24.0887068439149</v>
+        <v>0.097204</v>
       </c>
       <c r="N18">
-        <v>24.0887068439149</v>
+        <v>0.291612</v>
       </c>
       <c r="O18">
-        <v>0.05792932504214226</v>
+        <v>0.0002320268364499376</v>
       </c>
       <c r="P18">
-        <v>0.05792932504214226</v>
+        <v>0.0002320268364499377</v>
       </c>
       <c r="Q18">
-        <v>1132.084104211815</v>
+        <v>4.554142578362667</v>
       </c>
       <c r="R18">
-        <v>1132.084104211815</v>
+        <v>40.987283205264</v>
       </c>
       <c r="S18">
-        <v>0.01073071255946477</v>
+        <v>4.055551069138283E-05</v>
       </c>
       <c r="T18">
-        <v>0.01073071255946477</v>
+        <v>4.055551069138284E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.996466499728</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H19">
-        <v>46.996466499728</v>
+        <v>140.554172</v>
       </c>
       <c r="I19">
-        <v>0.1852380042691404</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J19">
-        <v>0.1852380042691404</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>159.175599089258</v>
+        <v>159.5522103333333</v>
       </c>
       <c r="N19">
-        <v>159.175599089258</v>
+        <v>478.656631</v>
       </c>
       <c r="O19">
-        <v>0.3827907856643069</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="P19">
-        <v>0.3827907856643069</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="Q19">
-        <v>7480.690710172448</v>
+        <v>7475.24293805717</v>
       </c>
       <c r="R19">
-        <v>7480.690710172448</v>
+        <v>67277.18644251453</v>
       </c>
       <c r="S19">
-        <v>0.0709074011890725</v>
+        <v>0.06656846808780773</v>
       </c>
       <c r="T19">
-        <v>0.0709074011890725</v>
+        <v>0.06656846808780775</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.996466499728</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H20">
-        <v>46.996466499728</v>
+        <v>140.554172</v>
       </c>
       <c r="I20">
-        <v>0.1852380042691404</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J20">
-        <v>0.1852380042691404</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>223.464444502756</v>
+        <v>225.4475503333333</v>
       </c>
       <c r="N20">
-        <v>223.464444502756</v>
+        <v>676.342651</v>
       </c>
       <c r="O20">
-        <v>0.5373947437212477</v>
+        <v>0.5381453632487492</v>
       </c>
       <c r="P20">
-        <v>0.5373947437212477</v>
+        <v>0.5381453632487493</v>
       </c>
       <c r="Q20">
-        <v>10502.0392799541</v>
+        <v>10562.53125551</v>
       </c>
       <c r="R20">
-        <v>10502.0392799541</v>
+        <v>95062.78129958997</v>
       </c>
       <c r="S20">
-        <v>0.09954592983165013</v>
+        <v>0.09406136103338925</v>
       </c>
       <c r="T20">
-        <v>0.09954592983165013</v>
+        <v>0.09406136103338929</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.996466499728</v>
+        <v>46.85139066666667</v>
       </c>
       <c r="H21">
-        <v>46.996466499728</v>
+        <v>140.554172</v>
       </c>
       <c r="I21">
-        <v>0.1852380042691404</v>
+        <v>0.1747880172478804</v>
       </c>
       <c r="J21">
-        <v>0.1852380042691404</v>
+        <v>0.1747880172478805</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.10048331383285</v>
+        <v>9.685827333333334</v>
       </c>
       <c r="N21">
-        <v>9.10048331383285</v>
+        <v>29.057482</v>
       </c>
       <c r="O21">
-        <v>0.02188514557230325</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="P21">
-        <v>0.02188514557230325</v>
+        <v>0.02312015837366435</v>
       </c>
       <c r="Q21">
-        <v>427.6905591898792</v>
+        <v>453.7944803238782</v>
       </c>
       <c r="R21">
-        <v>427.6905591898792</v>
+        <v>4084.150322914904</v>
       </c>
       <c r="S21">
-        <v>0.004053960688953069</v>
+        <v>0.004041126640589771</v>
       </c>
       <c r="T21">
-        <v>0.004053960688953069</v>
+        <v>0.004041126640589772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>56.240078</v>
+      </c>
+      <c r="H22">
+        <v>168.720234</v>
+      </c>
+      <c r="I22">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="J22">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>24.15150666666667</v>
+      </c>
+      <c r="N22">
+        <v>72.45452</v>
+      </c>
+      <c r="O22">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="P22">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="Q22">
+        <v>1358.282618750853</v>
+      </c>
+      <c r="R22">
+        <v>12224.54356875768</v>
+      </c>
+      <c r="S22">
+        <v>0.01209576650682608</v>
+      </c>
+      <c r="T22">
+        <v>0.01209576650682608</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>56.240078</v>
+      </c>
+      <c r="H23">
+        <v>168.720234</v>
+      </c>
+      <c r="I23">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="J23">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.097204</v>
+      </c>
+      <c r="N23">
+        <v>0.291612</v>
+      </c>
+      <c r="O23">
+        <v>0.0002320268364499376</v>
+      </c>
+      <c r="P23">
+        <v>0.0002320268364499377</v>
+      </c>
+      <c r="Q23">
+        <v>5.466760541912</v>
+      </c>
+      <c r="R23">
+        <v>49.200844877208</v>
+      </c>
+      <c r="S23">
+        <v>4.868254820525437E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.868254820525438E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>56.240078</v>
+      </c>
+      <c r="H24">
+        <v>168.720234</v>
+      </c>
+      <c r="I24">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="J24">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>159.5522103333333</v>
+      </c>
+      <c r="N24">
+        <v>478.656631</v>
+      </c>
+      <c r="O24">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="P24">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="Q24">
+        <v>8973.228754219073</v>
+      </c>
+      <c r="R24">
+        <v>80759.05878797166</v>
+      </c>
+      <c r="S24">
+        <v>0.07990831828738924</v>
+      </c>
+      <c r="T24">
+        <v>0.07990831828738927</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>56.240078</v>
+      </c>
+      <c r="H25">
+        <v>168.720234</v>
+      </c>
+      <c r="I25">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="J25">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>225.4475503333333</v>
+      </c>
+      <c r="N25">
+        <v>676.342651</v>
+      </c>
+      <c r="O25">
+        <v>0.5381453632487492</v>
+      </c>
+      <c r="P25">
+        <v>0.5381453632487493</v>
+      </c>
+      <c r="Q25">
+        <v>12679.18781565559</v>
+      </c>
+      <c r="R25">
+        <v>114112.6903409003</v>
+      </c>
+      <c r="S25">
+        <v>0.1129105925358937</v>
+      </c>
+      <c r="T25">
+        <v>0.1129105925358937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>56.240078</v>
+      </c>
+      <c r="H26">
+        <v>168.720234</v>
+      </c>
+      <c r="I26">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="J26">
+        <v>0.2098142997168268</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>9.685827333333334</v>
+      </c>
+      <c r="N26">
+        <v>29.057482</v>
+      </c>
+      <c r="O26">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="P26">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="Q26">
+        <v>544.7316847211987</v>
+      </c>
+      <c r="R26">
+        <v>4902.585162490788</v>
+      </c>
+      <c r="S26">
+        <v>0.004850939838512514</v>
+      </c>
+      <c r="T26">
+        <v>0.004850939838512515</v>
       </c>
     </row>
   </sheetData>
